--- a/data/Results/RunsRaspberryPi3B-Uni-VC4CL-Load20000.xlsx
+++ b/data/Results/RunsRaspberryPi3B-Uni-VC4CL-Load20000.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Moritz Herzog\Documents\Projekte\EmbeddedSystemsProject\data\Results\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B10977F2-BE3D-4DD8-A7FD-FD4E794CE5C6}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C247F692-CE36-4E94-8FB1-D2438C176399}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" tabRatio="790" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -703,10 +703,10 @@
               <c:strCache>
                 <c:ptCount val="3"/>
                 <c:pt idx="0">
+                  <c:v>Static WGS 1</c:v>
+                </c:pt>
+                <c:pt idx="1">
                   <c:v>ASAP WGS 1</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>Static WGS 1</c:v>
                 </c:pt>
                 <c:pt idx="2">
                   <c:v>RFS WGS 1</c:v>
@@ -2473,10 +2473,10 @@
               <c:strCache>
                 <c:ptCount val="3"/>
                 <c:pt idx="0">
+                  <c:v>Static WGS 10</c:v>
+                </c:pt>
+                <c:pt idx="1">
                   <c:v>ASAP WGS 10</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>Static WGS 10</c:v>
                 </c:pt>
                 <c:pt idx="2">
                   <c:v>RFS WGS 10</c:v>
@@ -2760,16 +2760,16 @@
                   <c:v>Serial WGS 10</c:v>
                 </c:pt>
                 <c:pt idx="2">
+                  <c:v>Static WGS 1</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>Static WGS 10</c:v>
+                </c:pt>
+                <c:pt idx="4">
                   <c:v>ASAP WGS 1</c:v>
                 </c:pt>
-                <c:pt idx="3">
+                <c:pt idx="5">
                   <c:v>ASAP WGS 10</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>Static WGS 1</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>Static WGS 10</c:v>
                 </c:pt>
                 <c:pt idx="6">
                   <c:v>RFS WGS 1</c:v>
@@ -3065,16 +3065,16 @@
               <c:strCache>
                 <c:ptCount val="6"/>
                 <c:pt idx="0">
+                  <c:v>Static WGS 1</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>Static WGS 10</c:v>
+                </c:pt>
+                <c:pt idx="2">
                   <c:v>ASAP WGS 1</c:v>
                 </c:pt>
-                <c:pt idx="1">
+                <c:pt idx="3">
                   <c:v>ASAP WGS 10</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>Static WGS 1</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>Static WGS 10</c:v>
                 </c:pt>
                 <c:pt idx="4">
                   <c:v>RFS WGS 1</c:v>
@@ -12381,10 +12381,10 @@
       <xdr:rowOff>14287</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>8</xdr:col>
-      <xdr:colOff>214312</xdr:colOff>
-      <xdr:row>14</xdr:row>
-      <xdr:rowOff>90487</xdr:rowOff>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>22</xdr:row>
+      <xdr:rowOff>9525</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -12411,16 +12411,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>8</xdr:col>
-      <xdr:colOff>261937</xdr:colOff>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>42862</xdr:colOff>
       <xdr:row>0</xdr:row>
-      <xdr:rowOff>61912</xdr:rowOff>
+      <xdr:rowOff>23812</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>14</xdr:col>
-      <xdr:colOff>261937</xdr:colOff>
-      <xdr:row>14</xdr:row>
-      <xdr:rowOff>138112</xdr:rowOff>
+      <xdr:col>22</xdr:col>
+      <xdr:colOff>742950</xdr:colOff>
+      <xdr:row>23</xdr:row>
+      <xdr:rowOff>171450</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -13075,8 +13075,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{569AB103-AA72-400D-99EA-D77E348E4213}">
   <dimension ref="A1:B9"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="H20" sqref="H20"/>
+    <sheetView tabSelected="1" topLeftCell="C1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="L28" sqref="L28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -13113,7 +13113,7 @@
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="B4">
         <f>'Static Single Threadded'!E2</f>
@@ -13122,7 +13122,7 @@
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="B5">
         <f>'Static  Multi Threadded'!E2</f>
@@ -13131,7 +13131,7 @@
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="B6">
         <f>'ASAP Single Threadded'!E2</f>
@@ -13140,7 +13140,7 @@
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="B7">
         <f>'ASAP Multi Threadded'!E2</f>
